--- a/pred_ohlcv/54_21/2019-10-26 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 LINK ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>81052.85439364248</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>90396.02709380364</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>93315.47489380364</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>93293.78479380363</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>93343.78479380363</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>93353.67319380362</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>93506.84899380362</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>93784.92919380362</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>92921.73969380363</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>92267.70169380362</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>92552.05179380362</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>92564.05179380362</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>92284.05179380362</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>92295.93719380362</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>91816.93209380363</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>106929.3070083885</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>106944.1433292819</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>105742.1094292819</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>105749.0481292819</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>105648.3314292819</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>116769.1681897707</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>116769.1681897707</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>110329.2114897707</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>113112.2929897707</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>115185.8069897707</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>114125.7027897707</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>118329.6022036555</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>115579.3843036555</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>110096.4162036555</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>112456.0407036555</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>112710.3132036555</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>109673.7100700949</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>108447.2563700949</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>107331.0454700949</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>108286.9904700949</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>110328.2770700949</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>108992.1754700949</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>108451.9746700949</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>108864.6553700949</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>110900.5315700949</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>111063.9142700949</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>107175.7156700949</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>107122.2285700949</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>107385.9046700949</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>32005.06374013147</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>34045.53284013148</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>33429.11934013147</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>33429.11934013147</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>33429.11934013147</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>33518.50274013147</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>33518.50274013147</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>33676.94194013147</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 LINK ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>81052.85439364248</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>90396.02709380364</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>93315.47489380364</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>93293.78479380363</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>93343.78479380363</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>93353.67319380362</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>93506.84899380362</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>93784.92919380362</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>92921.73969380363</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>92267.70169380362</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>92552.05179380362</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>92564.05179380362</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>92284.05179380362</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>92295.93719380362</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>91816.93209380363</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>107993.4507083885</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>106929.3070083885</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>106944.1433292819</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>116769.1681897707</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>116769.1681897707</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>110329.2114897707</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>113112.2929897707</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>115185.8069897707</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>114125.7027897707</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>118329.6022036555</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>115579.3843036555</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>110096.4162036555</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>112456.0407036555</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>112710.3132036555</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>109673.7100700949</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>108447.2563700949</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>107331.0454700949</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>108286.9904700949</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>110328.2770700949</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>108992.1754700949</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>108451.9746700949</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>108864.6553700949</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>110900.5315700949</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>111063.9142700949</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>107175.7156700949</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>107122.2285700949</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>107385.9046700949</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
